--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,48 +797,54 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -840,10 +859,10 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -852,19 +871,25 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,43 +917,49 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
+        <v>300</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,60 +1002,72 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,81 +1123,89 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2500</v>
       </c>
       <c r="I17" s="3">
         <v>2200</v>
       </c>
       <c r="J17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1500</v>
       </c>
       <c r="M18" s="3">
         <v>-1500</v>
@@ -1155,13 +1214,19 @@
         <v>-1500</v>
       </c>
       <c r="O18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,25 +1257,25 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1220,142 +1287,166 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1400</v>
       </c>
       <c r="N21" s="3">
         <v>-1400</v>
       </c>
       <c r="O21" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="P21" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>900</v>
       </c>
       <c r="L22" s="3">
         <v>800</v>
       </c>
       <c r="M22" s="3">
+        <v>900</v>
+      </c>
+      <c r="N22" s="3">
+        <v>800</v>
+      </c>
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3600</v>
       </c>
       <c r="J23" s="3">
         <v>-2400</v>
       </c>
       <c r="K23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3600</v>
       </c>
       <c r="J26" s="3">
         <v>-2400</v>
       </c>
       <c r="K26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3500</v>
       </c>
       <c r="J27" s="3">
         <v>-2300</v>
       </c>
       <c r="K27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,25 +1857,25 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1748,54 +1887,66 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3500</v>
       </c>
       <c r="J33" s="3">
         <v>-2300</v>
       </c>
       <c r="K33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3500</v>
       </c>
       <c r="J35" s="3">
         <v>-2300</v>
       </c>
       <c r="K35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,19 +2138,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
         <v>700</v>
       </c>
       <c r="F41" s="3">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
@@ -1991,28 +2164,34 @@
         <v>700</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,20 +2249,20 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2123,16 +2314,16 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2143,34 +2334,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2179,27 +2376,33 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>1000</v>
@@ -2208,54 +2411,60 @@
         <v>800</v>
       </c>
       <c r="I46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
+        <v>800</v>
+      </c>
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>600</v>
       </c>
       <c r="N46" s="3">
         <v>1400</v>
       </c>
       <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,13 +2502,13 @@
         <v>500</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2336,20 +2557,20 @@
       <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
+      <c r="H49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2684,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2484,10 +2723,10 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5100</v>
+        <v>3600</v>
       </c>
       <c r="E54" s="3">
         <v>3600</v>
       </c>
       <c r="F54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,113 +2878,127 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
+      <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
@@ -2733,70 +3006,82 @@
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,72 +3089,78 @@
         <v>700</v>
       </c>
       <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>700</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-120600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-116900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-114600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-111700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-109600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-107300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-103800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-101200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-98900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-96300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-93900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-91900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3500</v>
       </c>
       <c r="J81" s="3">
         <v>-2300</v>
       </c>
       <c r="K81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1100</v>
       </c>
       <c r="J89" s="3">
         <v>-1000</v>
       </c>
       <c r="K89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="L89" s="3">
         <v>-1000</v>
       </c>
       <c r="M89" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="N89" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="O89" s="3">
         <v>-900</v>
       </c>
       <c r="P89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4393,27 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3983,23 +4424,29 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4539,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>800</v>
       </c>
       <c r="J100" s="3">
         <v>900</v>
       </c>
       <c r="K100" s="3">
+        <v>800</v>
+      </c>
+      <c r="L100" s="3">
+        <v>900</v>
+      </c>
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,28 +4909,34 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -4442,18 +4945,24 @@
         <v>-300</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,22 +751,22 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
@@ -771,30 +775,33 @@
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -803,25 +810,25 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -830,7 +837,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -838,16 +845,19 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -865,7 +875,7 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -877,19 +887,22 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,13 +921,14 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -923,43 +937,46 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
       <c r="L12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
+        <v>400</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,37 +1025,40 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
       </c>
       <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1046,20 +1066,23 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,8 +1092,8 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,49 +1161,52 @@
         <v>2400</v>
       </c>
       <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2200</v>
       </c>
       <c r="I17" s="3">
         <v>2200</v>
       </c>
       <c r="J17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1700</v>
       </c>
       <c r="N17" s="3">
         <v>1700</v>
       </c>
       <c r="O17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,31 +1214,31 @@
         <v>-2000</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1500</v>
       </c>
       <c r="N18" s="3">
         <v>-1500</v>
@@ -1220,13 +1250,16 @@
         <v>-1500</v>
       </c>
       <c r="Q18" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="R18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,10 +1297,10 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1275,63 +1309,66 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1400</v>
       </c>
       <c r="O21" s="3">
         <v>-1400</v>
@@ -1340,113 +1377,122 @@
         <v>-1400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2400</v>
       </c>
       <c r="M23" s="3">
         <v>-2400</v>
       </c>
       <c r="N23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q23" s="3">
         <v>-2300</v>
       </c>
       <c r="R23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2400</v>
       </c>
       <c r="M26" s="3">
         <v>-2400</v>
       </c>
       <c r="N26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q26" s="3">
         <v>-2300</v>
       </c>
       <c r="R26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2300</v>
       </c>
       <c r="M27" s="3">
         <v>-2300</v>
       </c>
       <c r="N27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1863,10 +1933,10 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -1875,78 +1945,84 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2300</v>
       </c>
       <c r="M33" s="3">
         <v>-2300</v>
       </c>
       <c r="N33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2300</v>
       </c>
       <c r="M35" s="3">
         <v>-2300</v>
       </c>
       <c r="N35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>700</v>
       </c>
       <c r="F41" s="3">
+        <v>700</v>
+      </c>
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,23 +2342,23 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
@@ -2290,13 +2383,16 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2320,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2364,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2382,74 +2481,80 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
         <v>1100</v>
       </c>
       <c r="F46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
+        <v>800</v>
+      </c>
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
+      <c r="E47" s="3">
+        <v>100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -2466,8 +2571,8 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,19 +2607,19 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2563,8 +2674,8 @@
       <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
+      <c r="J49" s="3">
+        <v>1900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -2572,8 +2683,8 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,16 +2807,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2729,7 +2849,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="E54" s="3">
         <v>3600</v>
       </c>
       <c r="F54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1500</v>
       </c>
       <c r="M54" s="3">
         <v>1500</v>
       </c>
       <c r="N54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,40 +3020,40 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,49 +3073,52 @@
         <v>3800</v>
       </c>
       <c r="E58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,19 +3126,19 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
@@ -3012,149 +3149,158 @@
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
+        <v>900</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
-        <v>700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
-        <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>900</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>400</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
+        <v>900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-125900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-123500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-120600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-111700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-109600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-107300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-103800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-101200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-96300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-93900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-91900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2100</v>
       </c>
       <c r="H76" s="3">
         <v>-2100</v>
       </c>
       <c r="I76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2300</v>
       </c>
       <c r="M81" s="3">
         <v>-2300</v>
       </c>
       <c r="N81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,28 +4615,29 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4430,8 +4651,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,17 +4772,20 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-700</v>
       </c>
       <c r="P102" s="3">
         <v>-700</v>
       </c>
       <c r="Q102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
       </c>
       <c r="H8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
@@ -778,33 +782,36 @@
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -813,25 +820,25 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -840,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -848,19 +855,22 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -878,7 +888,7 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -890,19 +900,22 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,16 +935,17 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -940,43 +954,46 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
       </c>
       <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>400</v>
       </c>
       <c r="S12" s="3">
+        <v>400</v>
+      </c>
+      <c r="T12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,40 +1045,43 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
       </c>
       <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1069,20 +1089,23 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1095,8 +1118,8 @@
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,96 +1178,100 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="E17" s="3">
         <v>2400</v>
       </c>
       <c r="F17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2200</v>
       </c>
       <c r="J17" s="3">
         <v>2200</v>
       </c>
       <c r="K17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1700</v>
       </c>
       <c r="O17" s="3">
         <v>1700</v>
       </c>
       <c r="P17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E18" s="3">
         <v>-2000</v>
       </c>
       <c r="F18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1500</v>
       </c>
       <c r="O18" s="3">
         <v>-1500</v>
@@ -1253,13 +1283,16 @@
         <v>-1500</v>
       </c>
       <c r="R18" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="S18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1300,10 +1334,10 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1312,66 +1346,69 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1400</v>
       </c>
       <c r="P21" s="3">
         <v>-1400</v>
@@ -1380,119 +1417,128 @@
         <v>-1400</v>
       </c>
       <c r="R21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2400</v>
       </c>
       <c r="N23" s="3">
         <v>-2400</v>
       </c>
       <c r="O23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2300</v>
       </c>
       <c r="R23" s="3">
         <v>-2300</v>
       </c>
       <c r="S23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2400</v>
       </c>
       <c r="N26" s="3">
         <v>-2400</v>
       </c>
       <c r="O26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2300</v>
       </c>
       <c r="R26" s="3">
         <v>-2300</v>
       </c>
       <c r="S26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-2300</v>
       </c>
       <c r="N27" s="3">
         <v>-2300</v>
       </c>
       <c r="O27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1936,10 +2006,10 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1948,81 +2018,87 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-2300</v>
       </c>
       <c r="N33" s="3">
         <v>-2300</v>
       </c>
       <c r="O33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-2300</v>
       </c>
       <c r="N35" s="3">
         <v>-2300</v>
       </c>
       <c r="O35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>700</v>
       </c>
       <c r="F41" s="3">
         <v>700</v>
       </c>
       <c r="G41" s="3">
+        <v>700</v>
+      </c>
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,35 +2423,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
@@ -2386,17 +2479,20 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
@@ -2419,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2454,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2466,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2484,69 +2583,75 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1100</v>
       </c>
       <c r="F46" s="3">
         <v>1100</v>
       </c>
       <c r="G46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>800</v>
       </c>
       <c r="M46" s="3">
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2556,8 +2661,8 @@
       <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
+      <c r="F47" s="3">
+        <v>100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -2574,8 +2679,8 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,19 +2718,19 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2651,13 +2759,16 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E49" s="3">
         <v>1900</v>
@@ -2677,8 +2788,8 @@
       <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
+      <c r="K49" s="3">
+        <v>1900</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
@@ -2686,8 +2797,8 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,10 +2939,10 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2852,7 +2972,7 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3600</v>
       </c>
       <c r="F54" s="3">
         <v>3600</v>
       </c>
       <c r="G54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1500</v>
       </c>
       <c r="N54" s="3">
         <v>1500</v>
       </c>
       <c r="O54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,52 +3141,53 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3064,61 +3195,67 @@
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
         <v>3800</v>
       </c>
       <c r="F58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,19 +3266,19 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3152,87 +3289,93 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -3241,48 +3384,51 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
@@ -3300,10 +3446,10 @@
         <v>900</v>
       </c>
       <c r="J62" s="3">
+        <v>900</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-128300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-125900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-123500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-120600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-111700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-103800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-101200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-98900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-93900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-91900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2100</v>
       </c>
       <c r="I76" s="3">
         <v>-2100</v>
       </c>
       <c r="J76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-2300</v>
       </c>
       <c r="N81" s="3">
         <v>-2300</v>
       </c>
       <c r="O81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,52 +4768,55 @@
         <v>-1300</v>
       </c>
       <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,20 +4848,20 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4654,8 +4875,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,11 +5014,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-700</v>
       </c>
       <c r="Q102" s="3">
         <v>-700</v>
       </c>
       <c r="R102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,158 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,72 +824,78 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -891,10 +910,10 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -903,19 +922,25 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,55 +972,61 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>300</v>
       </c>
       <c r="R12" s="3">
         <v>400</v>
       </c>
       <c r="S12" s="3">
+        <v>300</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
+        <v>400</v>
+      </c>
+      <c r="V12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1081,76 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1121,11 +1166,11 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,105 +1230,113 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2500</v>
       </c>
       <c r="M17" s="3">
         <v>2200</v>
       </c>
       <c r="N17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="E18" s="3">
         <v>-2000</v>
       </c>
       <c r="F18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q18" s="3">
         <v>-1500</v>
@@ -1286,13 +1345,19 @@
         <v>-1500</v>
       </c>
       <c r="S18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1392,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1337,25 +1404,25 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1367,178 +1434,202 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="E21" s="3">
         <v>-1900</v>
       </c>
       <c r="F21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1400</v>
       </c>
       <c r="R21" s="3">
         <v>-1400</v>
       </c>
       <c r="S21" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="T21" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>900</v>
       </c>
       <c r="P22" s="3">
         <v>800</v>
       </c>
       <c r="Q22" s="3">
+        <v>900</v>
+      </c>
+      <c r="R22" s="3">
+        <v>800</v>
+      </c>
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-3600</v>
       </c>
       <c r="N23" s="3">
         <v>-2400</v>
       </c>
       <c r="O23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3600</v>
       </c>
       <c r="N26" s="3">
         <v>-2400</v>
       </c>
       <c r="O26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3500</v>
       </c>
       <c r="N27" s="3">
         <v>-2300</v>
       </c>
       <c r="O27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2136,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -2009,25 +2148,25 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2039,66 +2178,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3500</v>
       </c>
       <c r="N33" s="3">
         <v>-2300</v>
       </c>
       <c r="O33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-3500</v>
       </c>
       <c r="N35" s="3">
         <v>-2300</v>
       </c>
       <c r="O35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,31 +2485,33 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2100</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K41" s="3">
         <v>700</v>
@@ -2350,28 +2523,34 @@
         <v>700</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
+        <v>700</v>
+      </c>
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,41 +2605,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
@@ -2482,23 +2667,29 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
@@ -2518,16 +2709,16 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,34 +2747,34 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2586,16 +2783,22 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,22 +2806,22 @@
         <v>1900</v>
       </c>
       <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>1000</v>
@@ -2627,31 +2830,37 @@
         <v>800</v>
       </c>
       <c r="M46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
+        <v>800</v>
+      </c>
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>1400</v>
       </c>
       <c r="S46" s="3">
+        <v>600</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2664,11 +2873,11 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -2682,11 +2891,11 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2721,7 +2936,7 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2730,13 +2945,13 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2762,19 +2977,25 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F49" s="3">
         <v>2000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1900</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
@@ -2791,20 +3012,20 @@
       <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
+      <c r="L49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1900</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2942,13 +3181,13 @@
         <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2975,10 +3214,10 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E54" s="3">
         <v>4900</v>
       </c>
       <c r="F54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H54" s="3">
         <v>3600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5100</v>
       </c>
       <c r="I54" s="3">
         <v>3600</v>
       </c>
       <c r="J54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,120 +3401,134 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,28 +3536,28 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
+      <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
+        <v>400</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>10</v>
@@ -3292,82 +3565,94 @@
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,66 +3660,72 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
@@ -3449,22 +3740,22 @@
         <v>900</v>
       </c>
       <c r="K62" s="3">
+        <v>900</v>
+      </c>
+      <c r="L62" s="3">
+        <v>900</v>
+      </c>
+      <c r="M62" s="3">
         <v>600</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-130400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-128300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-125900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-123500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-120600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-116900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-114600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-111700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-109600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-107300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-103800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-101200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-98900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-96300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-93900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-91900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4537,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,55 +4552,61 @@
         <v>4700</v>
       </c>
       <c r="E76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-3500</v>
       </c>
       <c r="N81" s="3">
         <v>-2300</v>
       </c>
       <c r="O81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1100</v>
       </c>
       <c r="N89" s="3">
         <v>-1000</v>
       </c>
       <c r="O89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="P89" s="3">
         <v>-1000</v>
       </c>
       <c r="Q89" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="R89" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="S89" s="3">
         <v>-900</v>
       </c>
       <c r="T89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -4851,23 +5292,23 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4878,23 +5319,29 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5017,14 +5476,14 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>800</v>
       </c>
       <c r="N100" s="3">
         <v>900</v>
       </c>
       <c r="O100" s="3">
+        <v>800</v>
+      </c>
+      <c r="P100" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,40 +5916,46 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
@@ -5461,18 +5964,24 @@
         <v>-300</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
       </c>
       <c r="K8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
@@ -798,25 +802,28 @@
         <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,16 +831,16 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -842,25 +849,25 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -869,7 +876,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -877,28 +884,31 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -916,7 +926,7 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -928,19 +938,22 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,13 +976,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -978,10 +992,10 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
@@ -990,43 +1004,46 @@
         <v>300</v>
       </c>
       <c r="K12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
       </c>
       <c r="P12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>500</v>
       </c>
       <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>400</v>
       </c>
       <c r="U12" s="3">
         <v>400</v>
       </c>
       <c r="V12" s="3">
+        <v>400</v>
+      </c>
+      <c r="W12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>200</v>
       </c>
       <c r="N14" s="3">
+        <v>200</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1137,20 +1157,23 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1172,8 +1195,8 @@
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,114 +1258,118 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2400</v>
       </c>
       <c r="H17" s="3">
         <v>2400</v>
       </c>
       <c r="I17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2200</v>
       </c>
       <c r="M17" s="3">
         <v>2200</v>
       </c>
       <c r="N17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1700</v>
       </c>
       <c r="R17" s="3">
         <v>1700</v>
       </c>
       <c r="S17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2000</v>
       </c>
       <c r="H18" s="3">
         <v>-2000</v>
       </c>
       <c r="I18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1500</v>
       </c>
       <c r="R18" s="3">
         <v>-1500</v>
@@ -1351,13 +1381,16 @@
         <v>-1500</v>
       </c>
       <c r="U18" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="V18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,22 +1413,23 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1410,10 +1444,10 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1422,75 +1456,78 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-1400</v>
       </c>
       <c r="S21" s="3">
         <v>-1400</v>
@@ -1499,13 +1536,16 @@
         <v>-1400</v>
       </c>
       <c r="U21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,120 +1556,126 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2400</v>
       </c>
       <c r="Q23" s="3">
         <v>-2400</v>
       </c>
       <c r="R23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-2300</v>
       </c>
       <c r="U23" s="3">
         <v>-2300</v>
       </c>
       <c r="V23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,70 +1801,76 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-2400</v>
       </c>
       <c r="Q26" s="3">
         <v>-2400</v>
       </c>
       <c r="R26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-2300</v>
       </c>
       <c r="U26" s="3">
         <v>-2300</v>
       </c>
       <c r="V26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1826,58 +1881,61 @@
         <v>-1600</v>
       </c>
       <c r="F27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q27" s="3">
         <v>-2300</v>
       </c>
       <c r="R27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,22 +2191,25 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2154,10 +2224,10 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2166,28 +2236,31 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2198,58 +2271,61 @@
         <v>-1600</v>
       </c>
       <c r="F33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q33" s="3">
         <v>-2300</v>
       </c>
       <c r="R33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2322,125 +2401,131 @@
         <v>-1600</v>
       </c>
       <c r="F35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q35" s="3">
         <v>-2300</v>
       </c>
       <c r="R35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>700</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2620,35 +2713,35 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
@@ -2673,26 +2766,29 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
@@ -2715,13 +2811,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,13 +2843,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2759,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2771,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2789,83 +2888,89 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1100</v>
       </c>
       <c r="I46" s="3">
         <v>1100</v>
       </c>
       <c r="J46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>800</v>
       </c>
       <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -2879,8 +2984,8 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -2897,8 +3002,8 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2942,19 +3050,19 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2995,10 +3106,10 @@
         <v>2200</v>
       </c>
       <c r="F49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G49" s="3">
         <v>2000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1900</v>
       </c>
       <c r="H49" s="3">
         <v>1900</v>
@@ -3018,8 +3129,8 @@
       <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
+      <c r="N49" s="3">
+        <v>1900</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>10</v>
@@ -3027,8 +3138,8 @@
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3187,10 +3307,10 @@
         <v>800</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3220,7 +3340,7 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3600</v>
       </c>
       <c r="I54" s="3">
         <v>3600</v>
       </c>
       <c r="J54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1500</v>
       </c>
       <c r="Q54" s="3">
         <v>1500</v>
       </c>
       <c r="R54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,49 +3546,49 @@
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3465,70 +3596,76 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3800</v>
       </c>
       <c r="H58" s="3">
         <v>3800</v>
       </c>
       <c r="I58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2800</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,10 +3673,10 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
@@ -3548,19 +3685,19 @@
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
@@ -3571,88 +3708,94 @@
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3666,10 +3809,10 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
         <v>800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
@@ -3678,43 +3821,46 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,10 +3871,10 @@
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
@@ -3746,10 +3892,10 @@
         <v>900</v>
       </c>
       <c r="M62" s="3">
+        <v>900</v>
+      </c>
+      <c r="N62" s="3">
         <v>600</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-133700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-132000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-130400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-128300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-125900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-123500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-120600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-111700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-109600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-103800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-101200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-98900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-96300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-93900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-91900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2100</v>
       </c>
       <c r="L76" s="3">
         <v>-2100</v>
       </c>
       <c r="M76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4746,58 +4941,61 @@
         <v>-1600</v>
       </c>
       <c r="F81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q81" s="3">
         <v>-2300</v>
       </c>
       <c r="R81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1300</v>
+        <v>-800</v>
       </c>
       <c r="G89" s="3">
         <v>-1300</v>
       </c>
       <c r="H89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -5298,20 +5519,20 @@
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5325,8 +5546,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
@@ -5334,14 +5555,17 @@
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5482,11 +5712,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-700</v>
       </c>
       <c r="T102" s="3">
         <v>-700</v>
       </c>
       <c r="U102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
       </c>
       <c r="L8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
@@ -805,45 +809,48 @@
         <v>300</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -852,25 +859,25 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -879,7 +886,7 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -887,31 +894,34 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -929,7 +939,7 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -941,19 +951,22 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,16 +990,17 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -995,10 +1009,10 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>300</v>
@@ -1007,43 +1021,46 @@
         <v>300</v>
       </c>
       <c r="L12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
       </c>
       <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>400</v>
       </c>
       <c r="Q12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
       </c>
       <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>400</v>
       </c>
       <c r="V12" s="3">
         <v>400</v>
       </c>
       <c r="W12" s="3">
+        <v>400</v>
+      </c>
+      <c r="X12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,37 +1142,37 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
       </c>
       <c r="O14" s="3">
+        <v>200</v>
+      </c>
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1160,20 +1180,23 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1221,8 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,120 +1285,124 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2400</v>
       </c>
       <c r="I17" s="3">
         <v>2400</v>
       </c>
       <c r="J17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2200</v>
       </c>
       <c r="N17" s="3">
         <v>2200</v>
       </c>
       <c r="O17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1700</v>
       </c>
       <c r="S17" s="3">
         <v>1700</v>
       </c>
       <c r="T17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-1500</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2000</v>
       </c>
       <c r="I18" s="3">
         <v>-2000</v>
       </c>
       <c r="J18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1500</v>
       </c>
       <c r="S18" s="3">
         <v>-1500</v>
@@ -1384,13 +1414,16 @@
         <v>-1500</v>
       </c>
       <c r="V18" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="W18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,25 +1447,26 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1447,10 +1481,10 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1459,78 +1493,81 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1400</v>
       </c>
       <c r="T21" s="3">
         <v>-1400</v>
@@ -1539,18 +1576,21 @@
         <v>-1400</v>
       </c>
       <c r="V21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1559,123 +1599,129 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>-1400</v>
       </c>
       <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2400</v>
       </c>
       <c r="R23" s="3">
         <v>-2400</v>
       </c>
       <c r="S23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-2300</v>
       </c>
       <c r="V23" s="3">
         <v>-2300</v>
       </c>
       <c r="W23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,78 +1853,84 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2400</v>
       </c>
       <c r="R26" s="3">
         <v>-2400</v>
       </c>
       <c r="S26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-2300</v>
       </c>
       <c r="V26" s="3">
         <v>-2300</v>
       </c>
       <c r="W26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
         <v>-1600</v>
@@ -1884,58 +1939,61 @@
         <v>-1600</v>
       </c>
       <c r="G27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2300</v>
       </c>
       <c r="R27" s="3">
         <v>-2300</v>
       </c>
       <c r="S27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,25 +2261,28 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2227,10 +2297,10 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2239,33 +2309,36 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
         <v>-1600</v>
@@ -2274,58 +2347,61 @@
         <v>-1600</v>
       </c>
       <c r="G33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-2300</v>
       </c>
       <c r="R33" s="3">
         <v>-2300</v>
       </c>
       <c r="S33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,13 +2465,16 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
         <v>-1600</v>
@@ -2404,128 +2483,134 @@
         <v>-1600</v>
       </c>
       <c r="G35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-2300</v>
       </c>
       <c r="R35" s="3">
         <v>-2300</v>
       </c>
       <c r="S35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>700</v>
       </c>
       <c r="J41" s="3">
         <v>700</v>
       </c>
       <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,46 +2794,49 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2778,20 +2874,20 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
       <c r="H44" s="3">
+        <v>300</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
@@ -2814,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,14 +2945,14 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2861,11 +2960,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2873,13 +2972,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2891,81 +2990,87 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1100</v>
       </c>
       <c r="J46" s="3">
         <v>1100</v>
       </c>
       <c r="K46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>800</v>
       </c>
       <c r="Q46" s="3">
+        <v>800</v>
+      </c>
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -2987,8 +3092,8 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -3005,8 +3110,8 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3053,19 +3161,19 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3109,10 +3220,10 @@
         <v>2200</v>
       </c>
       <c r="G49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H49" s="3">
         <v>2000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1900</v>
       </c>
       <c r="I49" s="3">
         <v>1900</v>
@@ -3132,8 +3243,8 @@
       <c r="N49" s="3">
         <v>1900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>10</v>
+      <c r="O49" s="3">
+        <v>1900</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>10</v>
@@ -3141,8 +3252,8 @@
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3310,10 +3430,10 @@
         <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3343,7 +3463,7 @@
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3600</v>
       </c>
       <c r="J54" s="3">
         <v>3600</v>
       </c>
       <c r="K54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1500</v>
       </c>
       <c r="R54" s="3">
         <v>1500</v>
       </c>
       <c r="S54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,64 +3664,65 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
-        <v>900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,78 +3742,81 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3800</v>
       </c>
       <c r="I58" s="3">
         <v>3800</v>
       </c>
       <c r="J58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
@@ -3688,19 +3825,19 @@
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>10</v>
@@ -3711,99 +3848,105 @@
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -3812,10 +3955,10 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
+        <v>500</v>
+      </c>
+      <c r="I61" s="3">
         <v>800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
@@ -3824,43 +3967,46 @@
         <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,10 +4020,10 @@
         <v>1100</v>
       </c>
       <c r="G62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H62" s="3">
         <v>1000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>900</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
@@ -3895,10 +4041,10 @@
         <v>900</v>
       </c>
       <c r="N62" s="3">
+        <v>900</v>
+      </c>
+      <c r="O62" s="3">
         <v>600</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-135300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-133700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-132000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-130400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-128300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-125900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-123500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-120600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-111700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-109600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-103800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-101200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-98900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-96300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-93900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-91900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2100</v>
       </c>
       <c r="M76" s="3">
         <v>-2100</v>
       </c>
       <c r="N76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,83 +5048,89 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
         <v>-1600</v>
@@ -4944,58 +5139,61 @@
         <v>-1600</v>
       </c>
       <c r="G81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-2300</v>
       </c>
       <c r="R81" s="3">
         <v>-2300</v>
       </c>
       <c r="S81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-800</v>
       </c>
       <c r="F89" s="3">
         <v>-800</v>
       </c>
       <c r="G89" s="3">
-        <v>-1300</v>
+        <v>-800</v>
       </c>
       <c r="H89" s="3">
         <v>-1300</v>
       </c>
       <c r="I89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -5522,20 +5743,20 @@
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5549,8 +5770,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>10</v>
@@ -5558,14 +5779,17 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5715,11 +5945,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-700</v>
       </c>
       <c r="U102" s="3">
         <v>-700</v>
       </c>
       <c r="V102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,148 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
       </c>
       <c r="M8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
@@ -812,48 +815,51 @@
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -862,25 +868,25 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -889,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,25 +915,25 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -942,7 +951,7 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -954,19 +963,22 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,10 +1013,10 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
@@ -1012,10 +1025,10 @@
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
@@ -1024,43 +1037,46 @@
         <v>300</v>
       </c>
       <c r="M12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>500</v>
       </c>
       <c r="T12" s="3">
+        <v>500</v>
+      </c>
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>400</v>
       </c>
       <c r="W12" s="3">
         <v>400</v>
       </c>
       <c r="X12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1145,37 +1164,37 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>200</v>
       </c>
       <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1183,20 +1202,23 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,8 +1246,8 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,126 +1311,130 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="E17" s="3">
         <v>2200</v>
       </c>
       <c r="F17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2400</v>
       </c>
       <c r="J17" s="3">
         <v>2400</v>
       </c>
       <c r="K17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2200</v>
       </c>
       <c r="O17" s="3">
         <v>2200</v>
       </c>
       <c r="P17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1700</v>
       </c>
       <c r="T17" s="3">
         <v>1700</v>
       </c>
       <c r="U17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2000</v>
       </c>
       <c r="J18" s="3">
         <v>-2000</v>
       </c>
       <c r="K18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1500</v>
       </c>
       <c r="T18" s="3">
         <v>-1500</v>
@@ -1417,13 +1446,16 @@
         <v>-1500</v>
       </c>
       <c r="W18" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="X18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,28 +1480,29 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1484,10 +1517,10 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1496,81 +1529,84 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-1400</v>
       </c>
       <c r="U21" s="3">
         <v>-1400</v>
@@ -1579,13 +1615,16 @@
         <v>-1400</v>
       </c>
       <c r="W21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1602,126 +1641,132 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2400</v>
       </c>
       <c r="S23" s="3">
         <v>-2400</v>
       </c>
       <c r="T23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-2300</v>
       </c>
       <c r="W23" s="3">
         <v>-2300</v>
       </c>
       <c r="X23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,84 +1904,90 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-2400</v>
       </c>
       <c r="S26" s="3">
         <v>-2400</v>
       </c>
       <c r="T26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-2300</v>
       </c>
       <c r="W26" s="3">
         <v>-2300</v>
       </c>
       <c r="X26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1600</v>
       </c>
       <c r="F27" s="3">
         <v>-1600</v>
@@ -1942,58 +1996,61 @@
         <v>-1600</v>
       </c>
       <c r="H27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-2300</v>
       </c>
       <c r="S27" s="3">
         <v>-2300</v>
       </c>
       <c r="T27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,28 +2330,31 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2300,10 +2369,10 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -2312,36 +2381,39 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1600</v>
       </c>
       <c r="F33" s="3">
         <v>-1600</v>
@@ -2350,58 +2422,61 @@
         <v>-1600</v>
       </c>
       <c r="H33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-2300</v>
       </c>
       <c r="S33" s="3">
         <v>-2300</v>
       </c>
       <c r="T33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,16 +2543,19 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1600</v>
       </c>
       <c r="F35" s="3">
         <v>-1600</v>
@@ -2486,131 +2564,137 @@
         <v>-1600</v>
       </c>
       <c r="H35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2300</v>
       </c>
       <c r="S35" s="3">
         <v>-2300</v>
       </c>
       <c r="T35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>700</v>
       </c>
       <c r="K41" s="3">
         <v>700</v>
       </c>
       <c r="L41" s="3">
+        <v>700</v>
+      </c>
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,40 +2898,40 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2865,32 +2957,35 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
@@ -2913,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2948,14 +3046,14 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2963,11 +3061,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2975,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2993,84 +3091,90 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1100</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
       </c>
       <c r="L46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>800</v>
       </c>
       <c r="Q46" s="3">
         <v>800</v>
       </c>
       <c r="R46" s="3">
+        <v>800</v>
+      </c>
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3081,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -3095,8 +3199,8 @@
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
@@ -3113,8 +3217,8 @@
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3137,13 +3241,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -3164,19 +3271,19 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3205,13 +3312,16 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>2200</v>
@@ -3223,10 +3333,10 @@
         <v>2200</v>
       </c>
       <c r="H49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I49" s="3">
         <v>2000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1900</v>
       </c>
       <c r="J49" s="3">
         <v>1900</v>
@@ -3246,8 +3356,8 @@
       <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>10</v>
+      <c r="P49" s="3">
+        <v>1900</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>10</v>
@@ -3255,8 +3365,8 @@
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3525,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
@@ -3433,10 +3552,10 @@
         <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3466,7 +3585,7 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3600</v>
       </c>
       <c r="K54" s="3">
         <v>3600</v>
       </c>
       <c r="L54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1500</v>
       </c>
       <c r="S54" s="3">
         <v>1500</v>
       </c>
       <c r="T54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,67 +3794,68 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -3733,93 +3863,99 @@
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3800</v>
       </c>
       <c r="J58" s="3">
         <v>3800</v>
       </c>
       <c r="K58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
@@ -3828,19 +3964,19 @@
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>10</v>
@@ -3851,105 +3987,111 @@
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -3958,10 +4100,10 @@
         <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>500</v>
+      </c>
+      <c r="J61" s="3">
         <v>800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -3970,48 +4112,51 @@
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -4023,10 +4168,10 @@
         <v>1100</v>
       </c>
       <c r="H62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I62" s="3">
         <v>1000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>900</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
@@ -4044,10 +4189,10 @@
         <v>900</v>
       </c>
       <c r="O62" s="3">
+        <v>900</v>
+      </c>
+      <c r="P62" s="3">
         <v>600</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-136600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-135300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-133700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-132000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-130400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-128300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-125900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-123500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-120600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-111700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-107300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-103800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-101200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-98900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-96300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-93900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-91900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2100</v>
       </c>
       <c r="N76" s="3">
         <v>-2100</v>
       </c>
       <c r="O76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,89 +5239,95 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1600</v>
       </c>
       <c r="F81" s="3">
         <v>-1600</v>
@@ -5142,58 +5336,61 @@
         <v>-1600</v>
       </c>
       <c r="H81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-2300</v>
       </c>
       <c r="S81" s="3">
         <v>-2300</v>
       </c>
       <c r="T81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-800</v>
       </c>
       <c r="G89" s="3">
         <v>-800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1300</v>
+        <v>-800</v>
       </c>
       <c r="I89" s="3">
         <v>-1300</v>
       </c>
       <c r="J89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -5746,20 +5966,20 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5773,8 +5993,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5948,11 +6177,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-700</v>
       </c>
       <c r="V102" s="3">
         <v>-700</v>
       </c>
       <c r="W102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,301 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -954,10 +974,10 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -966,19 +986,25 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
       </c>
       <c r="J12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
       </c>
       <c r="L12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
       </c>
       <c r="N12" s="3">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3">
+        <v>300</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
+        <v>400</v>
+      </c>
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>400</v>
-      </c>
-      <c r="V12" s="3">
-        <v>300</v>
       </c>
       <c r="W12" s="3">
         <v>400</v>
       </c>
       <c r="X12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,20 +1180,26 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1167,58 +1207,64 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,11 +1295,11 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,126 +1375,132 @@
         <v>2600</v>
       </c>
       <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2500</v>
       </c>
       <c r="R17" s="3">
         <v>2200</v>
       </c>
       <c r="S17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1800</v>
+        <v>-1300</v>
       </c>
       <c r="E18" s="3">
         <v>-1500</v>
       </c>
       <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2100</v>
       </c>
       <c r="J18" s="3">
         <v>-2000</v>
       </c>
       <c r="K18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1500</v>
       </c>
       <c r="V18" s="3">
         <v>-1500</v>
@@ -1449,13 +1509,19 @@
         <v>-1500</v>
       </c>
       <c r="X18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1508,7 +1576,7 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1520,25 +1588,25 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1550,81 +1618,93 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2100</v>
       </c>
       <c r="J21" s="3">
         <v>-1900</v>
       </c>
       <c r="K21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-1400</v>
       </c>
       <c r="W21" s="3">
         <v>-1400</v>
       </c>
       <c r="X21" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="Y21" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,138 +1715,150 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>800</v>
-      </c>
-      <c r="T22" s="3">
-        <v>900</v>
       </c>
       <c r="U22" s="3">
         <v>800</v>
       </c>
       <c r="V22" s="3">
+        <v>900</v>
+      </c>
+      <c r="W22" s="3">
+        <v>800</v>
+      </c>
+      <c r="X22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1800</v>
+        <v>-1300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
         <v>-1800</v>
       </c>
       <c r="G23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-3600</v>
       </c>
       <c r="S23" s="3">
         <v>-2400</v>
       </c>
       <c r="T23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1800</v>
+        <v>-1300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
         <v>-1800</v>
       </c>
       <c r="G26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-3600</v>
       </c>
       <c r="S26" s="3">
         <v>-2400</v>
       </c>
       <c r="T26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1600</v>
       </c>
       <c r="H27" s="3">
         <v>-1600</v>
       </c>
       <c r="I27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-3500</v>
       </c>
       <c r="S27" s="3">
         <v>-2300</v>
       </c>
       <c r="T27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2360,7 +2500,7 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2372,25 +2512,25 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2402,81 +2542,93 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1600</v>
       </c>
       <c r="H33" s="3">
         <v>-1600</v>
       </c>
       <c r="I33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-3500</v>
       </c>
       <c r="S33" s="3">
         <v>-2300</v>
       </c>
       <c r="T33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1600</v>
       </c>
       <c r="H35" s="3">
         <v>-1600</v>
       </c>
       <c r="I35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-3500</v>
       </c>
       <c r="S35" s="3">
         <v>-2300</v>
       </c>
       <c r="T35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,46 +2919,48 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2100</v>
       </c>
       <c r="N41" s="3">
         <v>700</v>
       </c>
       <c r="O41" s="3">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="P41" s="3">
         <v>700</v>
@@ -2798,28 +2972,34 @@
         <v>700</v>
       </c>
       <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="3">
+        <v>700</v>
+      </c>
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,55 +3069,61 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -2960,38 +3146,44 @@
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
@@ -3011,17 +3203,17 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3049,7 +3247,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3058,35 +3256,35 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3094,54 +3292,60 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2100</v>
       </c>
       <c r="G46" s="3">
         <v>1900</v>
       </c>
       <c r="H46" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="I46" s="3">
         <v>1900</v>
       </c>
       <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>1000</v>
@@ -3150,31 +3354,37 @@
         <v>800</v>
       </c>
       <c r="R46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
+        <v>800</v>
+      </c>
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V46" s="3">
-        <v>600</v>
       </c>
       <c r="W46" s="3">
         <v>1400</v>
       </c>
       <c r="X46" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z46" s="3">
         <v>2000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3188,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -3202,11 +3412,11 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>100</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>10</v>
@@ -3220,11 +3430,11 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3253,10 +3469,10 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -3274,7 +3490,7 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3283,13 +3499,13 @@
         <v>500</v>
       </c>
       <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3315,19 +3531,25 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2200</v>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F49" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>2200</v>
@@ -3336,13 +3558,13 @@
         <v>2200</v>
       </c>
       <c r="I49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1900</v>
       </c>
       <c r="L49" s="3">
         <v>1900</v>
@@ -3359,20 +3581,20 @@
       <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>10</v>
+      <c r="Q49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R49" s="3">
+        <v>1900</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3537,10 +3777,10 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
@@ -3555,13 +3795,13 @@
         <v>800</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -3588,10 +3828,10 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F54" s="3">
         <v>3000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5400</v>
       </c>
       <c r="G54" s="3">
         <v>5300</v>
       </c>
       <c r="H54" s="3">
-        <v>4900</v>
+        <v>5400</v>
       </c>
       <c r="I54" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J54" s="3">
         <v>4900</v>
       </c>
       <c r="K54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M54" s="3">
         <v>3600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5100</v>
       </c>
       <c r="N54" s="3">
         <v>3600</v>
       </c>
       <c r="O54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,194 +4055,208 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
+      <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>400</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>10</v>
@@ -3990,168 +4264,186 @@
       <c r="S59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>400</v>
-      </c>
-      <c r="X59" s="3">
-        <v>700</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
       </c>
       <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,10 +4451,10 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
@@ -4171,13 +4463,13 @@
         <v>1100</v>
       </c>
       <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>900</v>
@@ -4192,22 +4484,22 @@
         <v>900</v>
       </c>
       <c r="P62" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>900</v>
+      </c>
+      <c r="R62" s="3">
         <v>600</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-139100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-136600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-135300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-133700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-132000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-130400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-128300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-125900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-123500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-120600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-116900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-114600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-111700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-109600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-107300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-103800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-101200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-98900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-96300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-93900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-91900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F76" s="3">
         <v>4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3900</v>
       </c>
       <c r="I76" s="3">
         <v>4700</v>
       </c>
       <c r="J76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1600</v>
       </c>
       <c r="H81" s="3">
         <v>-1600</v>
       </c>
       <c r="I81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-3500</v>
       </c>
       <c r="S81" s="3">
         <v>-2300</v>
       </c>
       <c r="T81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1100</v>
       </c>
       <c r="S89" s="3">
         <v>-1000</v>
       </c>
       <c r="T89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="U89" s="3">
         <v>-1000</v>
       </c>
       <c r="V89" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="W89" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="X89" s="3">
         <v>-900</v>
       </c>
       <c r="Y89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,13 +6380,15 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5957,11 +6399,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -5969,23 +6411,23 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5996,23 +6438,29 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,13 +6607,19 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6180,14 +6640,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>900</v>
-      </c>
-      <c r="R100" s="3">
-        <v>800</v>
       </c>
       <c r="S100" s="3">
         <v>900</v>
       </c>
       <c r="T100" s="3">
+        <v>800</v>
+      </c>
+      <c r="U100" s="3">
+        <v>900</v>
+      </c>
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,55 +7175,61 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
@@ -6734,18 +7238,24 @@
         <v>-300</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,169 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
       </c>
       <c r="P8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
       </c>
       <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
@@ -832,25 +836,28 @@
         <v>300</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
       </c>
       <c r="X8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,31 +865,31 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
@@ -891,25 +898,25 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
-      </c>
-      <c r="T9" s="3">
-        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -918,7 +925,7 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -926,43 +933,46 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>600</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -980,7 +990,7 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
@@ -992,19 +1002,22 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,28 +1045,29 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>300</v>
@@ -1062,10 +1076,10 @@
         <v>300</v>
       </c>
       <c r="L12" s="3">
+        <v>300</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
@@ -1074,43 +1088,46 @@
         <v>300</v>
       </c>
       <c r="P12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
+        <v>400</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>400</v>
       </c>
       <c r="T12" s="3">
         <v>400</v>
       </c>
       <c r="U12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V12" s="3">
         <v>500</v>
       </c>
       <c r="W12" s="3">
+        <v>500</v>
+      </c>
+      <c r="X12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>400</v>
       </c>
       <c r="Z12" s="3">
         <v>400</v>
       </c>
       <c r="AA12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,14 +1215,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1213,37 +1233,37 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>200</v>
       </c>
       <c r="S14" s="3">
+        <v>200</v>
+      </c>
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1251,20 +1271,23 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1324,8 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,144 +1392,148 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2200</v>
       </c>
       <c r="H17" s="3">
         <v>2200</v>
       </c>
       <c r="I17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2400</v>
       </c>
       <c r="M17" s="3">
         <v>2400</v>
       </c>
       <c r="N17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2200</v>
       </c>
       <c r="R17" s="3">
         <v>2200</v>
       </c>
       <c r="S17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1700</v>
       </c>
       <c r="W17" s="3">
         <v>1700</v>
       </c>
       <c r="X17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2000</v>
       </c>
       <c r="M18" s="3">
         <v>-2000</v>
       </c>
       <c r="N18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1500</v>
       </c>
       <c r="W18" s="3">
         <v>-1500</v>
@@ -1515,13 +1545,16 @@
         <v>-1500</v>
       </c>
       <c r="Z18" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="AA18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,13 +1582,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1564,22 +1598,22 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1594,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1606,90 +1640,93 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-1400</v>
       </c>
       <c r="X21" s="3">
         <v>-1400</v>
@@ -1698,13 +1735,16 @@
         <v>-1400</v>
       </c>
       <c r="Z21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1730,135 +1770,141 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-2400</v>
       </c>
       <c r="V23" s="3">
         <v>-2400</v>
       </c>
       <c r="W23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="X23" s="3">
         <v>-2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z23" s="3">
         <v>-2300</v>
       </c>
       <c r="AA23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,102 +2060,108 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-2400</v>
       </c>
       <c r="V26" s="3">
         <v>-2400</v>
       </c>
       <c r="W26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z26" s="3">
         <v>-2300</v>
       </c>
       <c r="AA26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1600</v>
       </c>
       <c r="I27" s="3">
         <v>-1600</v>
@@ -2115,58 +2170,61 @@
         <v>-1600</v>
       </c>
       <c r="K27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-2300</v>
       </c>
       <c r="V27" s="3">
         <v>-2300</v>
       </c>
       <c r="W27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,13 +2540,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2488,22 +2558,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2518,10 +2588,10 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2530,45 +2600,48 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1600</v>
       </c>
       <c r="I33" s="3">
         <v>-1600</v>
@@ -2577,58 +2650,61 @@
         <v>-1600</v>
       </c>
       <c r="K33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-2300</v>
       </c>
       <c r="V33" s="3">
         <v>-2300</v>
       </c>
       <c r="W33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,25 +2780,28 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1600</v>
       </c>
       <c r="I35" s="3">
         <v>-1600</v>
@@ -2731,140 +2810,146 @@
         <v>-1600</v>
       </c>
       <c r="K35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-2300</v>
       </c>
       <c r="V35" s="3">
         <v>-2300</v>
       </c>
       <c r="W35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1000</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
       </c>
       <c r="G41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>700</v>
       </c>
       <c r="N41" s="3">
         <v>700</v>
       </c>
       <c r="O41" s="3">
+        <v>700</v>
+      </c>
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,58 +3165,61 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3164,29 +3260,29 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
@@ -3209,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3253,14 +3352,14 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3268,11 +3367,11 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -3280,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3298,93 +3397,99 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1100</v>
       </c>
       <c r="N46" s="3">
         <v>1100</v>
       </c>
       <c r="O46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P46" s="3">
         <v>2600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
-      </c>
-      <c r="S46" s="3">
-        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>800</v>
       </c>
       <c r="U46" s="3">
+        <v>800</v>
+      </c>
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -3418,8 +3523,8 @@
       <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
+      <c r="N47" s="3">
+        <v>100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -3436,8 +3541,8 @@
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -3475,7 +3583,7 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -3496,19 +3604,19 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>500</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3548,11 +3659,11 @@
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>2200</v>
@@ -3564,10 +3675,10 @@
         <v>2200</v>
       </c>
       <c r="K49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L49" s="3">
         <v>2000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1900</v>
       </c>
       <c r="M49" s="3">
         <v>1900</v>
@@ -3587,8 +3698,8 @@
       <c r="R49" s="3">
         <v>1900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>10</v>
+      <c r="S49" s="3">
+        <v>1900</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>10</v>
@@ -3596,8 +3707,8 @@
       <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3783,7 +3903,7 @@
         <v>700</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
@@ -3801,10 +3921,10 @@
         <v>800</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3834,7 +3954,7 @@
         <v>200</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3600</v>
       </c>
       <c r="N54" s="3">
         <v>3600</v>
       </c>
       <c r="O54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1500</v>
       </c>
       <c r="V54" s="3">
         <v>1500</v>
       </c>
       <c r="W54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X54" s="3">
         <v>1700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,76 +4187,77 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,76 +4277,79 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3800</v>
       </c>
       <c r="M58" s="3">
         <v>3800</v>
       </c>
       <c r="N58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>100</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>200</v>
       </c>
       <c r="AA58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4223,22 +4360,22 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
@@ -4247,19 +4384,19 @@
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>10</v>
@@ -4270,103 +4407,109 @@
       <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,19 +4517,19 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
       </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
@@ -4395,10 +4538,10 @@
         <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
         <v>800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
@@ -4407,48 +4550,51 @@
         <v>500</v>
       </c>
       <c r="P61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -4457,7 +4603,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
@@ -4469,10 +4615,10 @@
         <v>1100</v>
       </c>
       <c r="K62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L62" s="3">
         <v>1000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>900</v>
       </c>
       <c r="M62" s="3">
         <v>900</v>
@@ -4490,10 +4636,10 @@
         <v>900</v>
       </c>
       <c r="R62" s="3">
+        <v>900</v>
+      </c>
+      <c r="S62" s="3">
         <v>600</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4764,71 +4922,74 @@
       <c r="F66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-139100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-136600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-135300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-133700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-132000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-130400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-128300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-125900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-123500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-120600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-116900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-114600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-111700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-109600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-107300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-103800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-101200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-98900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-96300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-93900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-91900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="E76" s="3">
         <v>4500</v>
       </c>
       <c r="F76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q76" s="3">
         <v>-2100</v>
       </c>
       <c r="R76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,107 +5815,113 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1600</v>
       </c>
       <c r="I81" s="3">
         <v>-1600</v>
@@ -5735,58 +5930,61 @@
         <v>-1600</v>
       </c>
       <c r="K81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-2300</v>
       </c>
       <c r="V81" s="3">
         <v>-2300</v>
       </c>
       <c r="W81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
       </c>
       <c r="J89" s="3">
         <v>-800</v>
       </c>
       <c r="K89" s="3">
-        <v>-1300</v>
+        <v>-800</v>
       </c>
       <c r="L89" s="3">
         <v>-1300</v>
       </c>
       <c r="M89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,7 +6612,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -6417,20 +6638,20 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6444,8 +6665,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>10</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,7 +6852,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6646,11 +6876,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,90 +7270,96 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-700</v>
       </c>
       <c r="Y102" s="3">
         <v>-700</v>
       </c>
       <c r="Z102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,339 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
       </c>
       <c r="AA8" s="3">
         <v>100</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
-      </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
-      <c r="X9" s="3">
-        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -993,10 +1012,10 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
@@ -1005,19 +1024,25 @@
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1071,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>300</v>
       </c>
       <c r="K12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
       </c>
       <c r="Q12" s="3">
+        <v>300</v>
+      </c>
+      <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>400</v>
       </c>
       <c r="U12" s="3">
+        <v>300</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
+        <v>400</v>
+      </c>
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
-      </c>
-      <c r="X12" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>300</v>
       </c>
       <c r="Z12" s="3">
         <v>400</v>
       </c>
       <c r="AA12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1215,20 +1254,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1236,81 +1275,87 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1327,11 +1372,11 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,153 +1444,161 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2500</v>
       </c>
       <c r="G17" s="3">
         <v>2600</v>
       </c>
       <c r="H17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2500</v>
       </c>
       <c r="U17" s="3">
         <v>2200</v>
       </c>
       <c r="V17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1800</v>
       </c>
       <c r="H18" s="3">
         <v>-1500</v>
       </c>
       <c r="I18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2100</v>
       </c>
       <c r="M18" s="3">
         <v>-2000</v>
       </c>
       <c r="N18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-1500</v>
       </c>
       <c r="Y18" s="3">
         <v>-1500</v>
@@ -1548,13 +1607,19 @@
         <v>-1500</v>
       </c>
       <c r="AA18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,34 +1648,36 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1619,7 +1686,7 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1631,25 +1698,25 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1661,90 +1728,102 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2100</v>
       </c>
       <c r="M21" s="3">
         <v>-1900</v>
       </c>
       <c r="N21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-1400</v>
       </c>
       <c r="Z21" s="3">
         <v>-1400</v>
       </c>
       <c r="AA21" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="AB21" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1764,147 +1843,159 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>800</v>
-      </c>
-      <c r="W22" s="3">
-        <v>900</v>
       </c>
       <c r="X22" s="3">
         <v>800</v>
       </c>
       <c r="Y22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA22" s="3">
         <v>1100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>1200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1400</v>
       </c>
       <c r="I23" s="3">
         <v>-1800</v>
       </c>
       <c r="J23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-3600</v>
       </c>
       <c r="V23" s="3">
         <v>-2400</v>
       </c>
       <c r="W23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1400</v>
       </c>
       <c r="I26" s="3">
         <v>-1800</v>
       </c>
       <c r="J26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-3600</v>
       </c>
       <c r="V26" s="3">
         <v>-2400</v>
       </c>
       <c r="W26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1600</v>
       </c>
       <c r="K27" s="3">
         <v>-1600</v>
       </c>
       <c r="L27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-3500</v>
       </c>
       <c r="V27" s="3">
         <v>-2300</v>
       </c>
       <c r="W27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,34 +2676,40 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2579,7 +2718,7 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2591,25 +2730,25 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2621,90 +2760,102 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1600</v>
       </c>
       <c r="K33" s="3">
         <v>-1600</v>
       </c>
       <c r="L33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-3500</v>
       </c>
       <c r="V33" s="3">
         <v>-2300</v>
       </c>
       <c r="W33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1600</v>
       </c>
       <c r="K35" s="3">
         <v>-1600</v>
       </c>
       <c r="L35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-3500</v>
       </c>
       <c r="V35" s="3">
         <v>-2300</v>
       </c>
       <c r="W35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,55 +3179,57 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
-      </c>
-      <c r="O41" s="3">
-        <v>700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2100</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
       </c>
       <c r="R41" s="3">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="S41" s="3">
         <v>700</v>
@@ -3068,28 +3241,34 @@
         <v>700</v>
       </c>
       <c r="V41" s="3">
+        <v>500</v>
+      </c>
+      <c r="W41" s="3">
+        <v>700</v>
+      </c>
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,64 +3347,70 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3248,47 +3433,53 @@
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
@@ -3308,17 +3499,17 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>100</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
       <c r="Z44" s="3">
         <v>0</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3355,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3364,35 +3561,35 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
@@ -3400,63 +3597,69 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2100</v>
       </c>
       <c r="J46" s="3">
         <v>1900</v>
       </c>
       <c r="K46" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L46" s="3">
         <v>1900</v>
       </c>
       <c r="M46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R46" s="3">
-        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>1000</v>
@@ -3465,31 +3668,37 @@
         <v>800</v>
       </c>
       <c r="U46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
+        <v>800</v>
+      </c>
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1200</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>600</v>
       </c>
       <c r="Z46" s="3">
         <v>1400</v>
       </c>
       <c r="AA46" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC46" s="3">
         <v>2000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3512,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -3526,11 +3735,11 @@
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
@@ -3544,11 +3753,11 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3568,28 +3777,34 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -3607,7 +3822,7 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
@@ -3616,13 +3831,13 @@
         <v>500</v>
       </c>
       <c r="R48" s="3">
+        <v>400</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3662,14 +3883,14 @@
       <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2200</v>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I49" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>2200</v>
@@ -3678,13 +3899,13 @@
         <v>2200</v>
       </c>
       <c r="L49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N49" s="3">
         <v>2000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1900</v>
       </c>
       <c r="O49" s="3">
         <v>1900</v>
@@ -3701,20 +3922,20 @@
       <c r="S49" s="3">
         <v>1900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>10</v>
+      <c r="T49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1900</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,16 +4121,22 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
@@ -3906,10 +4145,10 @@
         <v>700</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
@@ -3924,13 +4163,13 @@
         <v>800</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -3957,10 +4196,10 @@
         <v>200</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F54" s="3">
         <v>4400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5400</v>
       </c>
       <c r="J54" s="3">
         <v>5300</v>
       </c>
       <c r="K54" s="3">
-        <v>4900</v>
+        <v>5400</v>
       </c>
       <c r="L54" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="M54" s="3">
         <v>4900</v>
       </c>
       <c r="N54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P54" s="3">
         <v>3600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5100</v>
       </c>
       <c r="Q54" s="3">
         <v>3600</v>
       </c>
       <c r="R54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T54" s="3">
         <v>3400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4447,96 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
       <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>200</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4280,129 +4547,135 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>10</v>
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
+        <v>400</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>10</v>
@@ -4410,106 +4683,118 @@
       <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>700</v>
       </c>
       <c r="AB59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4520,96 +4805,102 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
       </c>
       <c r="O61" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
       </c>
       <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
+        <v>500</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
-        <v>300</v>
-      </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>1100</v>
@@ -4618,13 +4909,13 @@
         <v>1100</v>
       </c>
       <c r="L62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N62" s="3">
         <v>1000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>900</v>
       </c>
       <c r="O62" s="3">
         <v>900</v>
@@ -4639,22 +4930,22 @@
         <v>900</v>
       </c>
       <c r="S62" s="3">
+        <v>900</v>
+      </c>
+      <c r="T62" s="3">
+        <v>900</v>
+      </c>
+      <c r="U62" s="3">
         <v>600</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,13 +5217,19 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>10</v>
+      <c r="D66" s="3">
+        <v>300</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>10</v>
@@ -4925,71 +5240,77 @@
       <c r="G66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-143600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-142500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-142000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-140800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-139100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-136600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-135300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-133700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-132000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-130400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-128300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-125900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-123500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-120600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-116900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-114600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-111700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-109600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-107300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-103800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-101200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-98900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-96300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-93900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-91900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>3900</v>
       </c>
       <c r="L76" s="3">
         <v>4700</v>
       </c>
       <c r="M76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1600</v>
       </c>
       <c r="K81" s="3">
         <v>-1600</v>
       </c>
       <c r="L81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-3500</v>
       </c>
       <c r="V81" s="3">
         <v>-2300</v>
       </c>
       <c r="W81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-1100</v>
       </c>
       <c r="V89" s="3">
         <v>-1000</v>
       </c>
       <c r="W89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="X89" s="3">
         <v>-1000</v>
       </c>
       <c r="Y89" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="Z89" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="AA89" s="3">
         <v>-900</v>
       </c>
       <c r="AB89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,22 +7042,24 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6629,11 +7070,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -6641,23 +7082,23 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6668,23 +7109,29 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>10</v>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,22 +7296,28 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -6879,14 +7338,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,100 +7758,112 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
-      </c>
-      <c r="T100" s="3">
-        <v>900</v>
-      </c>
-      <c r="U100" s="3">
-        <v>800</v>
       </c>
       <c r="V100" s="3">
         <v>900</v>
       </c>
       <c r="W100" s="3">
+        <v>800</v>
+      </c>
+      <c r="X100" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7433,64 +7930,70 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
@@ -7499,18 +8002,24 @@
         <v>-300</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z102" s="3">
         <v>800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BLGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BLGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,189 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
       </c>
       <c r="Q8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>500</v>
       </c>
       <c r="S8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T8" s="3">
         <v>400</v>
       </c>
       <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
@@ -852,66 +856,69 @@
         <v>300</v>
       </c>
       <c r="Y8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
       </c>
       <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
       <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>700</v>
       </c>
       <c r="G9" s="3">
         <v>700</v>
       </c>
       <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -920,25 +927,25 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
-      </c>
-      <c r="W9" s="3">
-        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>200</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
@@ -947,7 +954,7 @@
         <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -955,52 +962,55 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -1018,7 +1028,7 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
@@ -1030,19 +1040,22 @@
         <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,28 +1096,28 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>300</v>
       </c>
       <c r="K12" s="3">
+        <v>300</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
@@ -1112,10 +1126,10 @@
         <v>300</v>
       </c>
       <c r="O12" s="3">
+        <v>300</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
@@ -1124,43 +1138,46 @@
         <v>300</v>
       </c>
       <c r="S12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>400</v>
       </c>
       <c r="U12" s="3">
+        <v>400</v>
+      </c>
+      <c r="V12" s="3">
         <v>300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>400</v>
       </c>
       <c r="W12" s="3">
         <v>400</v>
       </c>
       <c r="X12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y12" s="3">
         <v>500</v>
       </c>
       <c r="Z12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>300</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>400</v>
       </c>
       <c r="AC12" s="3">
         <v>400</v>
       </c>
       <c r="AD12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1254,23 +1274,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1281,37 +1301,37 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>200</v>
       </c>
       <c r="V14" s="3">
+        <v>200</v>
+      </c>
+      <c r="W14" s="3">
         <v>600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1319,20 +1339,23 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>10</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,8 +1380,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1378,8 +1401,8 @@
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,162 +1472,166 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2200</v>
       </c>
       <c r="K17" s="3">
         <v>2200</v>
       </c>
       <c r="L17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2400</v>
       </c>
       <c r="P17" s="3">
         <v>2400</v>
       </c>
       <c r="Q17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2200</v>
       </c>
       <c r="U17" s="3">
         <v>2200</v>
       </c>
       <c r="V17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1700</v>
       </c>
       <c r="Z17" s="3">
         <v>1700</v>
       </c>
       <c r="AA17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-1600</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2000</v>
       </c>
       <c r="P18" s="3">
         <v>-2000</v>
       </c>
       <c r="Q18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-1500</v>
       </c>
       <c r="Z18" s="3">
         <v>-1500</v>
@@ -1613,13 +1643,16 @@
         <v>-1500</v>
       </c>
       <c r="AC18" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="AD18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,23 +1683,24 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1674,22 +1708,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1704,10 +1738,10 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
@@ -1716,99 +1750,102 @@
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-1600</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-1400</v>
       </c>
       <c r="AA21" s="3">
         <v>-1400</v>
@@ -1817,13 +1854,16 @@
         <v>-1400</v>
       </c>
       <c r="AC21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1858,144 +1898,150 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-2400</v>
       </c>
       <c r="Y23" s="3">
         <v>-2400</v>
       </c>
       <c r="Z23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2600</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-2300</v>
       </c>
       <c r="AC23" s="3">
         <v>-2300</v>
       </c>
       <c r="AD23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,120 +2215,126 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-2400</v>
       </c>
       <c r="Y26" s="3">
         <v>-2400</v>
       </c>
       <c r="Z26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-2300</v>
       </c>
       <c r="AC26" s="3">
         <v>-2300</v>
       </c>
       <c r="AD26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1600</v>
       </c>
       <c r="L27" s="3">
         <v>-1600</v>
@@ -2288,58 +2343,61 @@
         <v>-1600</v>
       </c>
       <c r="N27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y27" s="3">
         <v>-2300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,23 +2749,26 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2706,22 +2776,22 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -2736,10 +2806,10 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
@@ -2748,54 +2818,57 @@
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1600</v>
       </c>
       <c r="L33" s="3">
         <v>-1600</v>
@@ -2804,58 +2877,61 @@
         <v>-1600</v>
       </c>
       <c r="N33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y33" s="3">
         <v>-2300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,34 +3016,37 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1600</v>
       </c>
       <c r="L35" s="3">
         <v>-1600</v>
@@ -2976,149 +3055,155 @@
         <v>-1600</v>
       </c>
       <c r="N35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y35" s="3">
         <v>-2300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1000</v>
       </c>
       <c r="I41" s="3">
         <v>1000</v>
       </c>
       <c r="J41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>700</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
       </c>
       <c r="R41" s="3">
+        <v>700</v>
+      </c>
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,67 +3443,70 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>200</v>
+      </c>
+      <c r="V43" s="3">
         <v>300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3451,7 +3547,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -3460,29 +3556,29 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
@@ -3505,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
         <v>100</v>
       </c>
       <c r="Z44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3558,14 +3657,14 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3573,11 +3672,11 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3585,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3603,102 +3702,108 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1100</v>
       </c>
       <c r="Q46" s="3">
         <v>1100</v>
       </c>
       <c r="R46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S46" s="3">
         <v>2600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
-      </c>
-      <c r="V46" s="3">
-        <v>800</v>
       </c>
       <c r="W46" s="3">
         <v>800</v>
       </c>
       <c r="X46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3727,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -3741,8 +3846,8 @@
       <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
+      <c r="Q47" s="3">
+        <v>100</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
@@ -3759,8 +3864,8 @@
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3783,22 +3888,25 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
       </c>
       <c r="F48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -3807,7 +3915,7 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3828,19 +3936,19 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>500</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3889,11 +4000,11 @@
       <c r="H49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J49" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>2200</v>
@@ -3905,10 +4016,10 @@
         <v>2200</v>
       </c>
       <c r="N49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O49" s="3">
         <v>2000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1900</v>
       </c>
       <c r="P49" s="3">
         <v>1900</v>
@@ -3928,8 +4039,8 @@
       <c r="U49" s="3">
         <v>1900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>10</v>
+      <c r="V49" s="3">
+        <v>1900</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>10</v>
@@ -3937,8 +4048,8 @@
       <c r="X49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4139,7 +4259,7 @@
         <v>500</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -4151,7 +4271,7 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -4169,10 +4289,10 @@
         <v>800</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -4202,7 +4322,7 @@
         <v>200</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3600</v>
       </c>
       <c r="Q54" s="3">
         <v>3600</v>
       </c>
       <c r="R54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S54" s="3">
         <v>5100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1500</v>
       </c>
       <c r="Y54" s="3">
         <v>1500</v>
       </c>
       <c r="Z54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,85 +4579,86 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
       </c>
       <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>200</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4553,87 +4687,90 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3800</v>
       </c>
       <c r="P58" s="3">
         <v>3800</v>
       </c>
       <c r="Q58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R58" s="3">
         <v>3600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>100</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>200</v>
       </c>
       <c r="AD58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -4642,22 +4779,22 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -4666,19 +4803,19 @@
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>10</v>
@@ -4689,112 +4826,118 @@
       <c r="X59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4811,19 +4954,19 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
+        <v>500</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
@@ -4832,10 +4975,10 @@
         <v>500</v>
       </c>
       <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
         <v>800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>500</v>
       </c>
       <c r="Q61" s="3">
         <v>500</v>
@@ -4844,43 +4987,46 @@
         <v>500</v>
       </c>
       <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,13 +5034,13 @@
         <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>800</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -4903,7 +5049,7 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
@@ -4915,10 +5061,10 @@
         <v>1100</v>
       </c>
       <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>900</v>
       </c>
       <c r="P62" s="3">
         <v>900</v>
@@ -4936,10 +5082,10 @@
         <v>900</v>
       </c>
       <c r="U62" s="3">
+        <v>900</v>
+      </c>
+      <c r="V62" s="3">
         <v>600</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>10</v>
@@ -4947,8 +5093,8 @@
       <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,16 +5378,19 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
@@ -5246,71 +5404,74 @@
       <c r="I66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-143600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-139100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-136600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-135300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-133700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-132000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-130400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-128300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-125900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-123500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-120600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-116900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-114600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-111700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-109600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-107300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-103800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-101200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-98900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-96300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-93900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-91900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E76" s="3">
         <v>6400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4500</v>
       </c>
       <c r="H76" s="3">
         <v>4500</v>
       </c>
       <c r="I76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-2100</v>
       </c>
       <c r="T76" s="3">
         <v>-2100</v>
       </c>
       <c r="U76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,125 +6390,131 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1600</v>
       </c>
       <c r="L81" s="3">
         <v>-1600</v>
@@ -6328,58 +6523,61 @@
         <v>-1600</v>
       </c>
       <c r="N81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y81" s="3">
         <v>-2300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-800</v>
       </c>
       <c r="M89" s="3">
         <v>-800</v>
       </c>
       <c r="N89" s="3">
-        <v>-1300</v>
+        <v>-800</v>
       </c>
       <c r="O89" s="3">
         <v>-1300</v>
       </c>
       <c r="P89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,16 +7264,17 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -7062,7 +7283,7 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -7076,8 +7297,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -7088,20 +7309,20 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7115,8 +7336,8 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>10</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>10</v>
@@ -7124,14 +7345,17 @@
       <c r="AB91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
+      <c r="AC91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,16 +7529,19 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -7320,7 +7550,7 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -7344,11 +7574,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7862,11 +8111,11 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>800</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>-700</v>
       </c>
       <c r="AB102" s="3">
         <v>-700</v>
       </c>
       <c r="AC102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>800</v>
       </c>
     </row>
